--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>LUNES</t>
   </si>
@@ -77,88 +77,91 @@
     <t>VIERNES</t>
   </si>
   <si>
-    <t xml:space="preserve">GENERAL BÁSICO; </t>
+    <t>GENERAL BÁSICO</t>
   </si>
   <si>
-    <t xml:space="preserve">ARTE; </t>
+    <t>ARTE</t>
   </si>
   <si>
-    <t xml:space="preserve">EDUCACIÓN FÍSICA; </t>
+    <t>MÚSICA</t>
   </si>
   <si>
-    <t xml:space="preserve">MÚSICA; </t>
+    <t>EDUCACIÓN FÍSICA</t>
   </si>
   <si>
-    <t xml:space="preserve">TECNOLOGÍA; </t>
+    <t>TECNOLOGÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">ORIENTACIÓN; </t>
+    <t>RELIGIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">RELIGIÓN; </t>
+    <t>ORIENTACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">MATEMÁTICA; </t>
+    <t>INGLÉS</t>
   </si>
   <si>
-    <t xml:space="preserve">LENGUAJE; </t>
+    <t>CIENCIAS NATURALES</t>
   </si>
   <si>
-    <t xml:space="preserve">HISTORIA; </t>
+    <t>MATEMÁTICA</t>
   </si>
   <si>
-    <t xml:space="preserve">CIENCIAS NATURALES; </t>
+    <t>LENGUAJE</t>
   </si>
   <si>
-    <t xml:space="preserve">INGLÉS; </t>
+    <t>HISTORIA</t>
   </si>
   <si>
-    <t xml:space="preserve">7B; </t>
+    <t>PLAN</t>
   </si>
   <si>
-    <t xml:space="preserve">6A; </t>
+    <t>1B</t>
   </si>
   <si>
-    <t xml:space="preserve">1B; </t>
+    <t>7B</t>
   </si>
   <si>
-    <t xml:space="preserve">4B; </t>
+    <t>6B</t>
   </si>
   <si>
-    <t xml:space="preserve">8A; </t>
+    <t>5A</t>
   </si>
   <si>
-    <t xml:space="preserve">5B; </t>
+    <t>3B</t>
   </si>
   <si>
-    <t xml:space="preserve">6B; </t>
+    <t>1A</t>
   </si>
   <si>
-    <t xml:space="preserve">1A; </t>
+    <t>4A</t>
   </si>
   <si>
-    <t xml:space="preserve">7A; </t>
+    <t>3A</t>
   </si>
   <si>
-    <t xml:space="preserve">8B; </t>
+    <t>5B</t>
   </si>
   <si>
-    <t xml:space="preserve">5A; </t>
+    <t>7A</t>
   </si>
   <si>
-    <t xml:space="preserve">3B; </t>
+    <t>2B</t>
   </si>
   <si>
-    <t xml:space="preserve">2B; </t>
+    <t>2A</t>
   </si>
   <si>
-    <t xml:space="preserve">3A; </t>
+    <t>8B</t>
   </si>
   <si>
-    <t xml:space="preserve">4A; </t>
+    <t>6A</t>
   </si>
   <si>
-    <t xml:space="preserve">2A; </t>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>8A</t>
   </si>
 </sst>
 </file>
@@ -536,16 +539,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" t="s"/>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s"/>
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -558,32 +559,36 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -591,37 +596,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -629,20 +634,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
@@ -653,18 +652,22 @@
         <v>5</v>
       </c>
       <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -673,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -725,7 +728,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s"/>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -735,15 +740,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s"/>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
@@ -752,16 +757,16 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" t="s"/>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s"/>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
@@ -769,16 +774,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -795,47 +800,45 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s"/>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -843,14 +846,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
+      <c r="D9" t="s"/>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -897,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -917,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -929,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -937,34 +940,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
@@ -974,30 +977,30 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1008,7 +1011,9 @@
         <v>5</v>
       </c>
       <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -1020,14 +1025,12 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" t="s"/>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -1080,28 +1083,30 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1120,26 +1125,24 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>5</v>
       </c>
@@ -1148,18 +1151,18 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B6" t="s"/>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1167,17 +1170,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s"/>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1185,19 +1188,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" t="s"/>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1207,13 +1208,15 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s"/>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1257,17 +1260,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s"/>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1276,34 +1281,34 @@
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s"/>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1311,17 +1316,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1329,16 +1336,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1348,36 +1353,36 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s"/>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1385,17 +1390,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>15</v>
       </c>
@@ -1441,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1465,51 +1468,49 @@
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" t="s"/>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1517,10 +1518,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1529,59 +1530,61 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1625,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1645,16 +1648,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1665,89 +1668,87 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1755,18 +1756,20 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1808,18 +1811,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1827,19 +1832,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1847,19 +1852,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1867,19 +1870,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1887,9 +1888,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -1897,39 +1900,41 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
+      <c r="B8" t="s"/>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1940,17 +1945,15 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F9" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1963,7 +1966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1992,19 +1995,21 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s"/>
       <c r="D2" t="s"/>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" t="s"/>
       <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
@@ -2014,21 +2019,25 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" t="s"/>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
@@ -2038,8 +2047,12 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
@@ -2051,21 +2064,21 @@
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s"/>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
+      <c r="C8" t="s"/>
       <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
@@ -2074,11 +2087,39 @@
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2091,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2120,19 +2161,27 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s"/>
       <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
     </row>
@@ -2140,26 +2189,28 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s"/>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
@@ -2167,12 +2218,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
+      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
@@ -2192,23 +2243,49 @@
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
+      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2221,7 +2298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,8 +2327,12 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
@@ -2260,23 +2341,29 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
     </row>
@@ -2284,7 +2371,9 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
@@ -2294,34 +2383,42 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
@@ -2332,9 +2429,37 @@
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2380,50 +2505,46 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s"/>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" t="s"/>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>5</v>
       </c>
@@ -2439,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -2452,16 +2573,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2469,19 +2594,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" t="s"/>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2490,12 +2613,12 @@
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2503,17 +2626,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s"/>
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +2652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2557,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2577,19 +2702,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2597,51 +2722,57 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s"/>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2649,28 +2780,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s"/>
     </row>
@@ -2679,14 +2818,48 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2699,7 +2872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2729,17 +2902,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2747,17 +2922,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2765,17 +2942,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2783,82 +2962,144 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s"/>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2871,7 +3112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2900,28 +3141,40 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2929,46 +3182,54 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s"/>
     </row>
@@ -2976,45 +3237,89 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3027,7 +3332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3056,88 +3361,100 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" t="s"/>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
@@ -3147,30 +3464,62 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3183,7 +3532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3212,30 +3561,36 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
@@ -3243,71 +3598,91 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s"/>
       <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3315,14 +3690,50 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3335,7 +3746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3365,13 +3776,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3379,56 +3796,74 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
       <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s"/>
     </row>
@@ -3436,41 +3871,85 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3483,7 +3962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3513,17 +3992,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3531,31 +4012,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3563,39 +4052,55 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
@@ -3603,15 +4108,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3619,18 +4128,48 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3643,7 +4182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3675,27 +4214,37 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3703,15 +4252,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3719,17 +4272,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3737,15 +4292,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3753,29 +4312,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3783,14 +4350,50 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3803,7 +4406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3833,57 +4436,69 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" t="s"/>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
@@ -3891,56 +4506,94 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" t="s"/>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s"/>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3953,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3983,19 +4636,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4003,31 +4656,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4035,15 +4696,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4051,43 +4716,59 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4097,12 +4778,46 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s"/>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4145,15 +4860,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4164,16 +4883,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4183,17 +4902,15 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4213,41 +4930,41 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" t="s"/>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>5</v>
       </c>
@@ -4256,15 +4973,17 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" t="s"/>
       <c r="C8" t="s"/>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
@@ -4275,14 +4994,10 @@
       </c>
       <c r="C9" t="s"/>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4295,7 +5010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4325,79 +5040,99 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s"/>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4405,48 +5140,90 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4459,7 +5236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4488,44 +5265,52 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
@@ -4533,43 +5318,51 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s"/>
       <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
@@ -4580,25 +5373,63 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4611,7 +5442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4640,123 +5471,181 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
+      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
+      <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4769,7 +5658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4798,15 +5687,17 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s"/>
     </row>
@@ -4814,95 +5705,147 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s"/>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s"/>
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4915,7 +5858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4945,15 +5888,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4961,47 +5908,59 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5009,31 +5968,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5041,32 +6008,70 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s"/>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s"/>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5079,7 +6084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5109,19 +6114,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5129,17 +6134,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5147,19 +6154,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5167,35 +6174,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5203,29 +6214,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5233,20 +6254,78 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5259,7 +6338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5288,14 +6367,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5303,12 +6388,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
     </row>
@@ -5317,16 +6404,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s"/>
     </row>
@@ -5335,74 +6422,120 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s"/>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
+      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5415,7 +6548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5445,57 +6578,79 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5505,37 +6660,49 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -5546,15 +6713,49 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5567,7 +6768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5597,42 +6798,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s"/>
       <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -5642,73 +6853,119 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s"/>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s"/>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5721,7 +6978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,19 +7008,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5771,19 +7028,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5791,17 +7048,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5809,33 +7068,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5843,31 +7108,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5875,20 +7148,78 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5930,18 +7261,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5950,34 +7283,30 @@
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" t="s"/>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>5</v>
       </c>
@@ -5986,18 +7315,14 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B5" t="s"/>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>5</v>
       </c>
@@ -6007,19 +7332,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6027,13 +7352,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s"/>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
@@ -6044,11 +7373,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
@@ -6064,10 +7395,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6081,7 +7412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6111,19 +7442,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6131,16 +7462,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6151,19 +7482,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6171,17 +7502,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6189,19 +7522,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6209,31 +7542,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6241,17 +7582,79 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6265,7 +7668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6294,7 +7697,9 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s"/>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
@@ -6304,7 +7709,9 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
@@ -6314,7 +7721,9 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
@@ -6325,10 +7734,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
     </row>
@@ -6336,10 +7747,14 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
@@ -6347,25 +7762,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C7" t="s"/>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
@@ -6375,12 +7796,40 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6393,7 +7842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6422,7 +7871,9 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s"/>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
@@ -6432,7 +7883,9 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
@@ -6442,13 +7895,11 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
+      <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
     </row>
@@ -6468,10 +7919,10 @@
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
@@ -6482,16 +7933,14 @@
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
@@ -6507,6 +7956,36 @@
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6519,7 +7998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6548,17 +8027,23 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s"/>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
@@ -6568,15 +8053,13 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s"/>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D4" t="s"/>
       <c r="E4" t="s"/>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
+      <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
@@ -6592,12 +8075,14 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s"/>
       <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
@@ -6606,11 +8091,11 @@
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
@@ -6631,6 +8116,36 @@
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6643,7 +8158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6672,11 +8187,11 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s"/>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D2" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
     </row>
@@ -6744,13 +8259,41 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" t="s"/>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6763,7 +8306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6792,113 +8335,165 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" t="s"/>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s"/>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
+      <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s"/>
       <c r="E8" t="s"/>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
+      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6911,7 +8506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6940,7 +8535,9 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s"/>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
@@ -6950,19 +8547,23 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s"/>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
@@ -6973,11 +8574,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
@@ -6985,9 +8586,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
@@ -6998,20 +8603,14 @@
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
@@ -7021,12 +8620,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s"/>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
+      <c r="C9" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7069,17 +8696,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s"/>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7087,19 +8714,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7107,19 +8734,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7127,37 +8754,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7165,33 +8792,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" t="s"/>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7199,18 +8826,18 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
         <v>15</v>
       </c>
+      <c r="C9" t="s"/>
       <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s"/>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7253,19 +8880,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7273,19 +8898,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7293,16 +8918,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -7313,17 +8936,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7334,34 +8957,32 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" t="s"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7372,28 +8993,34 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7437,53 +9064,53 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s"/>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s"/>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s"/>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7494,13 +9121,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -7511,73 +9138,73 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s"/>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s"/>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7620,17 +9247,13 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B2" t="s"/>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s"/>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -7641,19 +9264,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7661,16 +9284,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -7681,19 +9304,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7704,65 +9325,71 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7807,17 +9434,15 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" t="s"/>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7827,31 +9452,33 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7862,46 +9489,52 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7911,15 +9544,11 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" t="s"/>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>5</v>
       </c>
@@ -7928,17 +9557,15 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" t="s"/>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>

--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -101,13 +101,13 @@
     <t>INGLÉS</t>
   </si>
   <si>
-    <t>CIENCIAS NATURALES</t>
-  </si>
-  <si>
     <t>MATEMÁTICA</t>
   </si>
   <si>
     <t>LENGUAJE</t>
+  </si>
+  <si>
+    <t>CIENCIAS NATURALES</t>
   </si>
   <si>
     <t>HISTORIA</t>
@@ -140,16 +140,19 @@
     <t>3A</t>
   </si>
   <si>
-    <t>5B</t>
+    <t>7A</t>
   </si>
   <si>
-    <t>7A</t>
+    <t>5B</t>
   </si>
   <si>
     <t>2B</t>
   </si>
   <si>
     <t>2A</t>
+  </si>
+  <si>
+    <t>8A</t>
   </si>
   <si>
     <t>8B</t>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>4B</t>
-  </si>
-  <si>
-    <t>8A</t>
   </si>
 </sst>
 </file>
@@ -743,9 +743,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s"/>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
+      <c r="D3" t="s"/>
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -759,7 +757,7 @@
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -773,11 +771,9 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" t="s"/>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -794,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -813,17 +809,19 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" t="s"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s"/>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s"/>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
@@ -851,7 +849,9 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
@@ -926,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -959,9 +959,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D5" t="s"/>
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1023,9 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -1083,13 +1083,17 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
@@ -1118,9 +1122,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1153,9 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -1197,9 +1201,7 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
+      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
@@ -1215,9 +1217,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s"/>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1284,12 +1284,14 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s"/>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
@@ -1299,7 +1301,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1316,31 +1318,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s"/>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1353,16 +1355,16 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" t="s"/>
-      <c r="D7" t="s">
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1370,16 +1372,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -1390,17 +1390,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1464,32 +1464,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" t="s"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1499,7 +1499,9 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1518,19 +1520,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1541,16 +1543,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1558,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
@@ -1575,17 +1577,15 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F9" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1631,13 +1631,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1660,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1668,10 +1668,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1686,38 +1686,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
@@ -1727,16 +1725,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1746,9 +1744,11 @@
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1762,13 +1762,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1834,12 +1834,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
       <c r="E3" t="s">
         <v>16</v>
       </c>
@@ -1852,17 +1848,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1870,17 +1866,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s"/>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1888,19 +1886,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1908,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1927,7 +1925,7 @@
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
@@ -1942,18 +1940,20 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2041,7 +2041,9 @@
       </c>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
@@ -2061,7 +2063,9 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
@@ -2208,18 +2212,18 @@
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
@@ -2229,7 +2233,9 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
@@ -2253,7 +2259,9 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s"/>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
     </row>
@@ -2335,7 +2343,9 @@
       </c>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
@@ -2345,12 +2355,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s"/>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2361,9 +2369,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s"/>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
     </row>
@@ -2390,7 +2396,7 @@
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2404,20 +2410,18 @@
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" t="s"/>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s"/>
     </row>
@@ -2507,21 +2511,19 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s"/>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" t="s"/>
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -2544,7 +2546,9 @@
         <v>5</v>
       </c>
       <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
@@ -2576,9 +2580,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" t="s"/>
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -2613,9 +2615,11 @@
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2635,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -2722,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -2731,7 +2735,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s"/>
     </row>
@@ -2752,7 +2756,7 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2808,9 +2812,7 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
+      <c r="E8" t="s"/>
       <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
@@ -2821,14 +2823,12 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s"/>
     </row>
     <row r="10" spans="1:6">
@@ -2908,10 +2908,10 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2934,7 +2934,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2942,13 +2942,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -2965,16 +2965,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2982,7 +2982,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -2994,7 +2994,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3025,7 +3025,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -3048,7 +3048,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -3067,9 +3067,7 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
+      <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
     </row>
@@ -3094,9 +3092,7 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" t="s"/>
       <c r="D12" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
@@ -3173,9 +3169,7 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
@@ -3188,7 +3182,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -3223,7 +3217,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -3241,7 +3235,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -3249,14 +3243,16 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s"/>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -3267,9 +3263,7 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
+      <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
@@ -3284,9 +3278,7 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>22</v>
       </c>
@@ -3367,9 +3359,7 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D2" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
     </row>
@@ -3378,14 +3368,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
+      <c r="D3" t="s"/>
       <c r="E3" t="s">
         <v>29</v>
       </c>
@@ -3405,7 +3393,7 @@
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s"/>
     </row>
@@ -3436,12 +3424,10 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
+      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
@@ -3482,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -3570,9 +3556,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" t="s"/>
       <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
@@ -3583,14 +3567,12 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
@@ -3618,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -3659,7 +3641,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -3779,10 +3761,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
@@ -3796,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3807,17 +3789,19 @@
       <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s"/>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -3854,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -3865,7 +3849,9 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s"/>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
@@ -3880,7 +3866,9 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s"/>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
@@ -3896,7 +3884,9 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s"/>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
@@ -3912,7 +3902,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -4035,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -4075,7 +4065,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -4083,7 +4073,9 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s"/>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
@@ -4101,7 +4093,9 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s"/>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
@@ -4128,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -4139,13 +4133,17 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s"/>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="s"/>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" t="s"/>
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
@@ -4155,7 +4153,9 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="s"/>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
       <c r="E11" t="s"/>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -4221,7 +4221,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -4238,7 +4238,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -4333,7 +4333,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -4452,19 +4452,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4472,7 +4472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -4481,7 +4481,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -4492,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D7" t="s"/>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s"/>
     </row>
@@ -4542,11 +4542,11 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4636,19 +4636,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -4667,28 +4667,26 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4696,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -4705,10 +4703,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4716,10 +4714,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -4728,7 +4726,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4747,19 +4745,17 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
+      <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -4768,7 +4764,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4776,16 +4772,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s"/>
     </row>
@@ -4889,7 +4885,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -4902,7 +4898,9 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -4944,13 +4942,13 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4961,9 +4959,7 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
+      <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>5</v>
@@ -4974,7 +4970,9 @@
         <v>6</v>
       </c>
       <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -4993,9 +4991,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
+      <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
     </row>
@@ -5040,10 +5036,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -5060,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -5069,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -5092,7 +5088,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5100,7 +5096,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -5112,7 +5108,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5120,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -5132,7 +5128,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5146,7 +5142,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -5163,7 +5159,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -5183,7 +5179,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -5192,7 +5188,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5266,19 +5262,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5286,15 +5282,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
@@ -5305,12 +5303,14 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s"/>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" t="s"/>
     </row>
     <row r="5" spans="1:6">
@@ -5321,7 +5321,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -5339,30 +5339,32 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
@@ -5373,11 +5375,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -5388,18 +5392,18 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="n">
@@ -5481,22 +5485,24 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -5513,7 +5519,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5521,50 +5527,56 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s"/>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s"/>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s"/>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -5573,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -5608,13 +5620,13 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5691,7 +5703,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -5713,7 +5725,7 @@
       </c>
       <c r="D3" t="s"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s"/>
     </row>
@@ -5725,7 +5737,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
@@ -5742,11 +5754,11 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5759,9 +5771,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s"/>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -5778,7 +5792,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -5790,7 +5804,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -5798,7 +5812,7 @@
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5806,15 +5820,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5891,7 +5903,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5908,10 +5920,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5920,7 +5932,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5937,10 +5949,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5954,13 +5966,13 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5974,13 +5986,13 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5991,7 +6003,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6014,7 +6026,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -6031,16 +6043,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6114,19 +6126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6134,19 +6146,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6154,19 +6166,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6174,16 +6186,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -6194,7 +6206,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -6203,10 +6215,10 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6217,7 +6229,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6234,7 +6246,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -6243,7 +6255,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -6254,16 +6266,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -6377,10 +6389,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6391,10 +6403,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
@@ -6413,7 +6425,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s"/>
     </row>
@@ -6422,38 +6434,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D5" t="s"/>
       <c r="E5" t="s"/>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
+      <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F6" t="s"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
@@ -6465,9 +6471,7 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>20</v>
@@ -6484,9 +6488,11 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
@@ -6500,11 +6506,11 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6581,7 +6587,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -6644,21 +6650,17 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -6667,10 +6669,10 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6684,7 +6686,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
@@ -6704,9 +6706,7 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
+      <c r="E8" t="s"/>
       <c r="F8" t="s"/>
     </row>
     <row r="9" spans="1:6">
@@ -6722,7 +6722,9 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s"/>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -6843,10 +6845,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6854,10 +6856,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6872,15 +6874,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s"/>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6891,7 +6895,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
@@ -6911,7 +6915,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -6928,14 +6932,12 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" t="s"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="n">
@@ -7011,7 +7013,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -7020,7 +7022,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7028,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -7037,7 +7039,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -7048,16 +7050,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -7071,7 +7073,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -7088,19 +7090,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7108,16 +7110,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -7131,16 +7133,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7151,7 +7153,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -7160,7 +7162,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7273,15 +7275,15 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -7299,7 +7301,9 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -7337,14 +7341,12 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D6" t="s"/>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7354,9 +7356,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" t="s"/>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -7376,7 +7376,9 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s"/>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
@@ -7442,19 +7444,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7465,13 +7467,13 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -7482,19 +7484,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7514,7 +7516,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7534,7 +7536,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7542,19 +7544,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7571,7 +7573,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -7585,13 +7587,13 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -7734,11 +7736,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
@@ -7753,7 +7755,7 @@
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s"/>
     </row>
@@ -7761,16 +7763,14 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7781,11 +7781,11 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s"/>
     </row>
@@ -7793,9 +7793,7 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" t="s"/>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
@@ -7940,7 +7938,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
@@ -8034,7 +8032,7 @@
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8080,7 +8078,7 @@
       </c>
       <c r="C6" t="s"/>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
@@ -8092,7 +8090,7 @@
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
@@ -8242,7 +8240,9 @@
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" t="s"/>
     </row>
     <row r="8" spans="1:6">
@@ -8345,16 +8345,14 @@
         <v>21</v>
       </c>
       <c r="E2" t="s"/>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -8365,7 +8363,9 @@
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s"/>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
@@ -8375,11 +8375,9 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>23</v>
@@ -8390,10 +8388,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -8411,28 +8409,30 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8443,7 +8443,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
@@ -8553,7 +8553,7 @@
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s"/>
     </row>
@@ -8561,9 +8561,7 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B4" t="s"/>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
@@ -8574,9 +8572,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s"/>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
+      <c r="C5" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
@@ -8587,11 +8583,11 @@
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s"/>
     </row>
@@ -8696,11 +8692,9 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s"/>
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -8717,16 +8711,14 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8737,13 +8729,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -8760,10 +8752,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -8774,15 +8766,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
@@ -8793,7 +8787,7 @@
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -8814,11 +8808,11 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8826,9 +8820,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -8836,7 +8832,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -8880,17 +8876,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8901,13 +8895,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -8918,17 +8912,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8936,17 +8930,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,13 +8951,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -8980,7 +8974,9 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s"/>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
@@ -8996,9 +8992,11 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>10</v>
       </c>
@@ -9008,16 +9006,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
+      <c r="D9" t="s"/>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -9066,29 +9062,29 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s"/>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" t="s"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -9098,10 +9094,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -9110,7 +9106,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9118,16 +9114,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -9138,7 +9134,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -9150,7 +9146,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9161,14 +9157,14 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9179,13 +9175,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s"/>
     </row>
@@ -9195,10 +9191,10 @@
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -9247,16 +9243,18 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s"/>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9267,30 +9265,28 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -9304,10 +9300,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" t="s"/>
       <c r="E5" t="s">
@@ -9322,17 +9318,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s"/>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9340,7 +9338,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s">
@@ -9356,10 +9354,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -9368,7 +9366,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9379,16 +9377,14 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9434,7 +9430,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s"/>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -9449,9 +9447,7 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" t="s"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -9470,13 +9466,11 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -9516,7 +9510,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9527,7 +9521,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -9544,7 +9538,9 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s"/>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>

--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -11,6 +11,48 @@
     <sheet name="2A" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="4A" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6A" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7A" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="8A" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="1B" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2B" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="3B" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="4B" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="5B" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="6B" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="7B" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="8B" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Silva Silva Alejandra" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Manríquez Lucumilla Nelly Marcela" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Villarroel Hidalgo Prudencia" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Guzmán Zurita Marcia" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Rubio Sepúlveda Karin" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Escobar Lagos Hernán" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Petit Díaz Cecilia Margarita" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Acevedo López Susana" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Bona Ruz Pamela" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Achurra Insunza Mariela del Carmen" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="López Rojas Paula del Rosario" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Valladares Cornejo Jorge" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Vicencio Astorga María José" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Marcia Mura Cortéz" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Vega Maureira Ángela María" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Altamirano Jaque Karen" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Negrete PeraltaTabata" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="López Díaz Esteban Ignacio" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Cantarero Hormazábal Cantarero" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Fuenzalida Villarroel Eduardo" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Acuña Manterola Claudia" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Acevedo López Jorge del Carmen" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Morales Méndez Víctor Manuel" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Pinilla Ulloa Juan Andrés" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Navia Torres Bárbara" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Lillo Figueroa Alejandro Javier" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Meneses Bustamante Camila Andrea" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Vidal Lizama Jorge Alexis" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Balmaceda Riera María Ximena" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Herrera Sánchez Elizabeth" sheetId="46" state="visible" r:id="rId46"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>LUNES</t>
   </si>
@@ -54,6 +96,72 @@
   </si>
   <si>
     <t>MÚSICA</t>
+  </si>
+  <si>
+    <t>LENGUAJE</t>
+  </si>
+  <si>
+    <t>CIENCIAS NATURALES</t>
+  </si>
+  <si>
+    <t>MATEMÁTICA</t>
+  </si>
+  <si>
+    <t>INGLÉS</t>
+  </si>
+  <si>
+    <t>HISTORIA</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>1A</t>
   </si>
 </sst>
 </file>
@@ -576,6 +684,1800 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -750,6 +2652,2108 @@
       <c r="F9" t="s">
         <v>5</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -936,6 +4940,2302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1114,4 +7414,2180 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>